--- a/Penguin_Docs/PhysicsLayer.xlsx
+++ b/Penguin_Docs/PhysicsLayer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\penguin\Penguin_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\penguin\Penguin_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93804322-990C-46C0-8922-A6B295EA73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="12090" yWindow="3405" windowWidth="25920" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>PhysicsLayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,23 +260,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0"/>
@@ -293,16 +294,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -581,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,10 +648,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -729,7 +720,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A9:XFD1048576 A8 H1:XFD1 B2:XFD8">
+  <conditionalFormatting sqref="H1:XFD1 B2:XFD8 A8 A9:XFD1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
